--- a/Data/Параметры модели.xlsx
+++ b/Data/Параметры модели.xlsx
@@ -10839,10 +10839,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>0</x:v>
@@ -10851,10 +10851,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>511</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
         <x:v>0</x:v>
@@ -10877,10 +10877,10 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>0</x:v>
@@ -10889,10 +10889,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>341</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -10915,22 +10915,22 @@
         <x:v>762</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>243</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>484</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>194</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>434</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
         <x:v>0</x:v>
@@ -10953,22 +10953,22 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>423</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>152</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>275</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
         <x:v>0</x:v>
@@ -10991,22 +10991,22 @@
         <x:v>1086</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>243</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>747</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>263</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>446</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
         <x:v>0</x:v>
@@ -11029,22 +11029,22 @@
         <x:v>986</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>209</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>671</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>251</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>474</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>0</x:v>
@@ -11067,22 +11067,22 @@
         <x:v>854</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>209</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>554</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
         <x:v>0</x:v>
@@ -11105,22 +11105,22 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
         <x:v>0</x:v>
@@ -11143,22 +11143,22 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>131</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
         <x:v>0</x:v>

--- a/Data/Параметры модели.xlsx
+++ b/Data/Параметры модели.xlsx
@@ -10839,10 +10839,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>0</x:v>
@@ -10851,10 +10851,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>532</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
         <x:v>0</x:v>
@@ -10877,10 +10877,10 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>0</x:v>
@@ -10889,10 +10889,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>346</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -10915,22 +10915,22 @@
         <x:v>762</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>220</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>511</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>192</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>412</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
         <x:v>0</x:v>
@@ -10953,22 +10953,22 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>398</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>291</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
         <x:v>0</x:v>
@@ -10991,22 +10991,22 @@
         <x:v>1086</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>758</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>301</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>415</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
         <x:v>0</x:v>
@@ -11029,22 +11029,22 @@
         <x:v>986</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>253</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>635</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>248</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>472</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>0</x:v>
@@ -11067,22 +11067,22 @@
         <x:v>854</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>570</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>205</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
         <x:v>0</x:v>
@@ -11105,22 +11105,22 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>232</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
         <x:v>0</x:v>
@@ -11143,22 +11143,22 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>129</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
         <x:v>0</x:v>

--- a/Data/Параметры модели.xlsx
+++ b/Data/Параметры модели.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\repos\CitySimulation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E198AA-8A0A-49EE-81CA-69943A4E7A93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB9F07B-1ADD-45D5-954B-D01BDBC2D551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="4830" yWindow="1755" windowWidth="28800" windowHeight="11385" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="основания" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <x:si>
     <x:t>https://rusind.ru/raspredelenie-naseleniya-rossii-po-vozrastnym-gruppam.html</x:t>
   </x:si>
@@ -286,6 +286,36 @@
   </x:si>
   <x:si>
     <x:t>всего по категории</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Всего</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Рабочие</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не рабочие</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Дети дошкольники </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Школьники</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Молодежь</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Взрослые</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Пенсионеры(активные)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Пенсионеры(пассивные)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -10774,23 +10804,25 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L12"/>
+  <x:dimension ref="A1:L23"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="O6" sqref="O6"/>
+    <x:sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <x:selection activeCell="G17" sqref="G17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="38.425781" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.285156" style="0" customWidth="1"/>
-    <x:col min="4" max="7" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.710938" style="0" customWidth="1"/>
+    <x:col min="5" max="7" width="9.140625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="14.855469" style="0" customWidth="1"/>
     <x:col min="9" max="11" width="9.140625" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="9.710938" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:12" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A1" s="27" t="s">
         <x:v>67</x:v>
       </x:c>
@@ -10828,33 +10860,33 @@
         <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>632</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>518</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
         <x:v>0</x:v>
@@ -10866,33 +10898,33 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>382</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>275</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>163</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>351</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -10904,33 +10936,33 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>762</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>251</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>471</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>198</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>417</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
         <x:v>0</x:v>
@@ -10942,45 +10974,45 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>211</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>157</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>394</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>161</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>278</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="K5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L5" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
@@ -10991,34 +11023,34 @@
         <x:v>1086</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>752</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>261</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>450</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="K6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L6" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A7" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
@@ -11029,34 +11061,34 @@
         <x:v>986</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>216</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>671</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>237</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>460</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L7" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
@@ -11067,34 +11099,34 @@
         <x:v>854</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>196</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>578</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>218</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>137</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="K8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L8" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
@@ -11105,34 +11137,34 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>252</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="K9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
@@ -11143,34 +11175,34 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="K10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L10" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A11" s="27" t="s">
         <x:v>85</x:v>
       </x:c>
@@ -11208,8 +11240,76 @@
         <x:f>SUM(L2:L10)</x:f>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <x:row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <x:c r="A12" s="27" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <x:c r="B17" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <x:c r="A18" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="n">
+        <x:v>1695</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <x:c r="A19" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="n">
+        <x:v>2247</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <x:c r="A20" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="n">
+        <x:v>931</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <x:c r="A21" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="n">
+        <x:v>12030</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>10645</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="n">
+        <x:v>1385</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <x:c r="A22" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="n">
+        <x:v>1890</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <x:c r="A23" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="n">
+        <x:v>1200</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Data/Параметры модели.xlsx
+++ b/Data/Параметры модели.xlsx
@@ -10865,7 +10865,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>36</x:v>
@@ -10874,10 +10874,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
@@ -10886,7 +10886,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>342</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
         <x:v>0</x:v>
@@ -10903,28 +10903,28 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>275</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>176</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>268</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -10941,28 +10941,28 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>762</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>178</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>518</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>373</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
         <x:v>0</x:v>
@@ -10979,37 +10979,37 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>137</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>379</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>310</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L5" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -11023,31 +11023,31 @@
         <x:v>1086</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>228</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>700</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>424</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L6" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -11061,31 +11061,31 @@
         <x:v>986</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>208</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>639</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>155</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>480</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L7" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -11099,31 +11099,31 @@
         <x:v>854</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>164</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>586</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
         <x:v>207</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
-        <x:v>162</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L8" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -11137,31 +11137,31 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>231</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>129</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
-        <x:v>129</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L9" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -11175,31 +11175,31 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>198</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
-        <x:v>198</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L10" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Data/Параметры модели.xlsx
+++ b/Data/Параметры модели.xlsx
@@ -10865,16 +10865,16 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>2</x:v>
@@ -10883,10 +10883,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>336</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
         <x:v>0</x:v>
@@ -10903,28 +10903,28 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>275</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>191</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>254</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -10941,28 +10941,28 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>762</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>182</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>498</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>404</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
         <x:v>0</x:v>
@@ -10979,28 +10979,28 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>143</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>367</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>277</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
         <x:v>0</x:v>
@@ -11009,7 +11009,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L5" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -11023,22 +11023,22 @@
         <x:v>1086</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>215</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>726</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>168</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>432</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
         <x:v>0</x:v>
@@ -11047,7 +11047,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L6" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -11061,22 +11061,22 @@
         <x:v>986</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>219</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>637</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>482</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>0</x:v>
@@ -11085,7 +11085,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L7" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -11099,22 +11099,22 @@
         <x:v>854</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>563</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>207</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
         <x:v>0</x:v>
@@ -11123,7 +11123,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L8" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -11137,22 +11137,22 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>238</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>147</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
         <x:v>0</x:v>
@@ -11161,7 +11161,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L9" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -11175,22 +11175,22 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>130</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>205</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
         <x:v>0</x:v>
@@ -11199,7 +11199,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L10" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Data/Параметры модели.xlsx
+++ b/Data/Параметры модели.xlsx
@@ -10865,28 +10865,28 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>319</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
         <x:v>0</x:v>
@@ -10903,28 +10903,28 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>275</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>183</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>251</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -10941,28 +10941,28 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>762</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>186</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>506</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>421</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
         <x:v>0</x:v>
@@ -10979,28 +10979,28 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>129</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>399</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>25</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>300</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
         <x:v>0</x:v>
@@ -11009,7 +11009,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L5" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -11023,22 +11023,22 @@
         <x:v>1086</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>228</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>711</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>58</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>153</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>435</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
         <x:v>0</x:v>
@@ -11047,7 +11047,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L6" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -11061,22 +11061,22 @@
         <x:v>986</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>645</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>146</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>475</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>0</x:v>
@@ -11099,22 +11099,22 @@
         <x:v>854</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>171</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>556</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>220</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
         <x:v>0</x:v>
@@ -11123,7 +11123,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L8" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -11137,22 +11137,22 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>241</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
         <x:v>0</x:v>
@@ -11161,7 +11161,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L9" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -11175,22 +11175,22 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>199</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
         <x:v>0</x:v>
@@ -11199,7 +11199,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L10" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Data/Параметры модели.xlsx
+++ b/Data/Параметры модели.xlsx
@@ -10865,16 +10865,16 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>1</x:v>
@@ -10883,10 +10883,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
         <x:v>0</x:v>
@@ -10903,28 +10903,28 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>275</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>276</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -10941,28 +10941,28 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>762</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>190</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>491</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>394</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
         <x:v>0</x:v>
@@ -10979,28 +10979,28 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>146</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>376</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>279</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
         <x:v>0</x:v>
@@ -11009,7 +11009,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L5" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -11023,22 +11023,22 @@
         <x:v>1086</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>225</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>724</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>159</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>461</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
         <x:v>0</x:v>
@@ -11047,7 +11047,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L6" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -11061,22 +11061,22 @@
         <x:v>986</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>209</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>655</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>482</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>0</x:v>
@@ -11085,7 +11085,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L7" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -11099,22 +11099,22 @@
         <x:v>854</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>160</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>582</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>165</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>199</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
         <x:v>0</x:v>
@@ -11123,7 +11123,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L8" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -11137,22 +11137,22 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>236</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>153</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
         <x:v>0</x:v>
@@ -11161,7 +11161,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L9" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -11175,22 +11175,22 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>204</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
         <x:v>0</x:v>
@@ -11199,7 +11199,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L10" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Data/Параметры модели.xlsx
+++ b/Data/Параметры модели.xlsx
@@ -10865,28 +10865,28 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>339</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
         <x:v>0</x:v>
@@ -10903,28 +10903,28 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>275</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>177</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>252</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -10941,28 +10941,28 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>762</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>198</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>493</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>384</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
         <x:v>0</x:v>
@@ -10979,28 +10979,28 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>395</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>266</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
         <x:v>0</x:v>
@@ -11009,7 +11009,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L5" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -11023,22 +11023,22 @@
         <x:v>1086</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>234</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>699</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>164</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>454</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
         <x:v>0</x:v>
@@ -11047,7 +11047,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L6" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -11061,22 +11061,22 @@
         <x:v>986</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>669</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>460</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>0</x:v>
@@ -11085,7 +11085,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L7" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -11099,22 +11099,22 @@
         <x:v>854</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>158</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>585</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>226</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
         <x:v>0</x:v>
@@ -11123,7 +11123,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L8" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -11137,22 +11137,22 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>228</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>141</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
         <x:v>0</x:v>
@@ -11175,22 +11175,22 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>201</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
         <x:v>0</x:v>
@@ -11199,7 +11199,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L10" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Data/Параметры модели.xlsx
+++ b/Data/Параметры модели.xlsx
@@ -10865,19 +10865,19 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
@@ -10886,7 +10886,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>319</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
         <x:v>0</x:v>
@@ -10903,28 +10903,28 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>136</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>275</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>188</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>248</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -10941,28 +10941,28 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>136</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>762</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>195</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>501</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>415</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
         <x:v>0</x:v>
@@ -10979,28 +10979,28 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>138</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>400</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
         <x:v>0</x:v>
@@ -11023,22 +11023,22 @@
         <x:v>1086</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>243</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>703</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>432</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
         <x:v>0</x:v>
@@ -11047,7 +11047,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L6" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -11061,22 +11061,22 @@
         <x:v>986</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>186</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>659</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>472</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>0</x:v>
@@ -11085,7 +11085,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L7" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -11099,22 +11099,22 @@
         <x:v>854</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>560</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>199</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
         <x:v>0</x:v>
@@ -11123,7 +11123,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L8" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -11137,22 +11137,22 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>232</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>26</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
         <x:v>0</x:v>
@@ -11161,7 +11161,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L9" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -11175,22 +11175,22 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>204</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
         <x:v>0</x:v>
@@ -11199,7 +11199,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L10" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Data/Параметры модели.xlsx
+++ b/Data/Параметры модели.xlsx
@@ -10865,16 +10865,16 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>5</x:v>
@@ -10886,7 +10886,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
         <x:v>0</x:v>
@@ -10909,22 +10909,22 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>182</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -10941,28 +10941,28 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>762</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>210</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>479</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
         <x:v>0</x:v>
@@ -10979,28 +10979,28 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>398</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>288</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
         <x:v>0</x:v>
@@ -11009,7 +11009,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L5" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -11023,22 +11023,22 @@
         <x:v>1086</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>700</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>155</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>440</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
         <x:v>0</x:v>
@@ -11047,7 +11047,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L6" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -11061,22 +11061,22 @@
         <x:v>986</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>176</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
         <x:v>673</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>154</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>479</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>0</x:v>
@@ -11085,7 +11085,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L7" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -11099,22 +11099,22 @@
         <x:v>854</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>178</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>566</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>194</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
         <x:v>0</x:v>
@@ -11123,7 +11123,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L8" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -11137,22 +11137,22 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>241</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>24</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
         <x:v>0</x:v>
@@ -11161,7 +11161,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L9" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -11175,22 +11175,22 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>231</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
         <x:v>0</x:v>
@@ -11199,7 +11199,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L10" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Data/Параметры модели.xlsx
+++ b/Data/Параметры модели.xlsx
@@ -10865,28 +10865,28 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>340</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
         <x:v>0</x:v>
@@ -10903,28 +10903,28 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>275</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>175</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>271</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -10941,28 +10941,28 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>132</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>762</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>514</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>385</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
         <x:v>0</x:v>
@@ -10979,28 +10979,28 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>130</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>386</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>276</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
         <x:v>0</x:v>
@@ -11009,7 +11009,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L5" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -11023,22 +11023,22 @@
         <x:v>1086</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>708</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>168</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>437</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
         <x:v>0</x:v>
@@ -11047,7 +11047,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L6" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -11061,22 +11061,22 @@
         <x:v>986</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>198</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>673</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>160</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>476</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>0</x:v>
@@ -11085,7 +11085,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L7" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -11102,19 +11102,19 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>559</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>204</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
         <x:v>0</x:v>
@@ -11123,7 +11123,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L8" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -11137,22 +11137,22 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
         <x:v>231</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>131</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
         <x:v>0</x:v>
@@ -11161,7 +11161,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L9" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -11175,22 +11175,22 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="G10" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>193</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
         <x:v>0</x:v>
@@ -11199,7 +11199,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L10" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Data/Параметры модели.xlsx
+++ b/Data/Параметры модели.xlsx
@@ -10865,16 +10865,16 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>2</x:v>
@@ -10886,7 +10886,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>333</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
         <x:v>0</x:v>
@@ -10903,7 +10903,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>275</x:v>
@@ -10912,19 +10912,19 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>290</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -10941,28 +10941,28 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>762</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>186</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>497</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>394</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
         <x:v>0</x:v>
@@ -10979,28 +10979,28 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>381</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>291</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
         <x:v>0</x:v>
@@ -11009,7 +11009,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L5" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -11023,22 +11023,22 @@
         <x:v>1086</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>216</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>728</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>160</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>407</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
         <x:v>0</x:v>
@@ -11047,7 +11047,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L6" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -11061,22 +11061,22 @@
         <x:v>986</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>188</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>670</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>499</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>0</x:v>
@@ -11085,7 +11085,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L7" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -11099,22 +11099,22 @@
         <x:v>854</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>175</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>573</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>222</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
         <x:v>0</x:v>
@@ -11123,7 +11123,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L8" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -11137,22 +11137,22 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>231</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
         <x:v>29</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
         <x:v>53</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
         <x:v>0</x:v>
@@ -11161,7 +11161,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L9" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -11175,19 +11175,19 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
         <x:v>197</x:v>
@@ -11199,7 +11199,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L10" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
